--- a/simulacion.xlsx
+++ b/simulacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nocan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3204207-E690-4A67-BF58-C1F0696D0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40154FD7-8055-417F-ADEF-19F6707DB583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1755" windowWidth="29040" windowHeight="15840" xr2:uid="{E3B62118-F0DB-4565-A0DB-E5ED42A4770A}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="190">
   <si>
     <t>SISTEMA PALLETPARKING</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Stock Inicial</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1710,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2063,7 +2066,6 @@
     <xf numFmtId="168" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,6 +2074,8 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -9501,8 +9505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BCA041-2E46-4E93-8ECB-C4EA06E8ADC6}">
   <dimension ref="B3:AI118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9621,7 +9625,7 @@
     </row>
     <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="339" t="s">
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -10188,11 +10192,11 @@
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="340">
+      <c r="D21" s="339">
         <f>SUM(D9:D20)</f>
         <v>500</v>
       </c>
-      <c r="E21" s="340">
+      <c r="E21" s="339">
         <f>SUM(E9:E20)</f>
         <v>500</v>
       </c>
@@ -11273,7 +11277,7 @@
         <f>+Y47</f>
         <v>0.32</v>
       </c>
-      <c r="W57" s="341">
+      <c r="W57" s="340">
         <v>39643.599999999999</v>
       </c>
       <c r="Y57" s="40" t="s">
@@ -14258,8 +14262,13 @@
       <c r="M105" s="89"/>
       <c r="N105" s="89"/>
       <c r="O105" s="89"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="21"/>
+      <c r="P105" s="343">
+        <f>P104-P103</f>
+        <v>5461046.4788000006</v>
+      </c>
+      <c r="Q105" s="344" t="s">
+        <v>189</v>
+      </c>
       <c r="T105" s="18"/>
       <c r="U105" s="19"/>
       <c r="V105" s="19"/>
@@ -14377,121 +14386,121 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="341" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="342" t="s">
+      <c r="B1" s="341" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="342" t="s">
+      <c r="C1" s="341" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="342" t="s">
+      <c r="D1" s="341" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="342" t="s">
+      <c r="E1" s="341" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="343">
+      <c r="A2" s="342">
         <v>1</v>
       </c>
-      <c r="B2" s="343">
+      <c r="B2" s="342">
         <v>88</v>
       </c>
-      <c r="C2" s="343">
+      <c r="C2" s="342">
         <v>78</v>
       </c>
-      <c r="D2" s="343">
-        <v>0</v>
-      </c>
-      <c r="E2" s="343">
+      <c r="D2" s="342">
+        <v>0</v>
+      </c>
+      <c r="E2" s="342">
         <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="343">
+      <c r="A3" s="342">
         <v>2</v>
       </c>
-      <c r="B3" s="343">
+      <c r="B3" s="342">
         <v>97</v>
       </c>
-      <c r="C3" s="343">
+      <c r="C3" s="342">
         <v>74</v>
       </c>
-      <c r="D3" s="343">
+      <c r="D3" s="342">
         <v>300</v>
       </c>
-      <c r="E3" s="343">
+      <c r="E3" s="342">
         <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="343">
+      <c r="A4" s="342">
         <v>3</v>
       </c>
-      <c r="B4" s="343">
+      <c r="B4" s="342">
         <v>86</v>
       </c>
-      <c r="C4" s="343">
+      <c r="C4" s="342">
         <v>98</v>
       </c>
-      <c r="D4" s="343">
+      <c r="D4" s="342">
         <v>490</v>
       </c>
-      <c r="E4" s="343">
+      <c r="E4" s="342">
         <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="343">
+      <c r="A5" s="342">
         <v>4</v>
       </c>
-      <c r="B5" s="343">
+      <c r="B5" s="342">
         <v>88</v>
       </c>
-      <c r="C5" s="343">
+      <c r="C5" s="342">
         <v>70</v>
       </c>
-      <c r="D5" s="343">
+      <c r="D5" s="342">
         <v>390</v>
       </c>
-      <c r="E5" s="343">
+      <c r="E5" s="342">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="343">
+      <c r="A6" s="342">
         <v>5</v>
       </c>
-      <c r="B6" s="343">
+      <c r="B6" s="342">
         <v>65</v>
       </c>
-      <c r="C6" s="343">
+      <c r="C6" s="342">
         <v>99</v>
       </c>
-      <c r="D6" s="343">
+      <c r="D6" s="342">
         <v>190</v>
       </c>
-      <c r="E6" s="343">
+      <c r="E6" s="342">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="343">
+      <c r="A7" s="342">
         <v>6</v>
       </c>
-      <c r="B7" s="343">
+      <c r="B7" s="342">
         <v>76</v>
       </c>
-      <c r="C7" s="343">
+      <c r="C7" s="342">
         <v>81</v>
       </c>
-      <c r="D7" s="343">
-        <v>0</v>
-      </c>
-      <c r="E7" s="343">
+      <c r="D7" s="342">
+        <v>0</v>
+      </c>
+      <c r="E7" s="342">
         <v>0</v>
       </c>
     </row>
